--- a/herbivory/data/CT_calibration_log.xlsx
+++ b/herbivory/data/CT_calibration_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maya/Documents/R_sessions/silbiger_lab/moorea_sgd/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD4F04F-36BA-6C4F-B0C2-528D5826B3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEEF207-6615-B348-A99E-FA0BF8A22AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="2600" windowWidth="24620" windowHeight="14860" xr2:uid="{1D825D28-FF7E-6A42-8667-F32CA8BDEB71}"/>
+    <workbookView xWindow="240" yWindow="7400" windowWidth="24620" windowHeight="14860" xr2:uid="{1D825D28-FF7E-6A42-8667-F32CA8BDEB71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>LoggerID</t>
   </si>
@@ -46,12 +46,6 @@
     <t>pre_post</t>
   </si>
   <si>
-    <t>time_in</t>
-  </si>
-  <si>
-    <t>time_out</t>
-  </si>
-  <si>
     <t>cond_HL</t>
   </si>
   <si>
@@ -86,6 +80,12 @@
   </si>
   <si>
     <t>*moved sand later</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>7/22?</t>
   </si>
 </sst>
 </file>
@@ -438,19 +438,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52172E36-11AC-7D40-B268-CEC433CDA8FD}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -479,47 +478,70 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>0.30555555555555552</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>53700</v>
+      </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>53700</v>
-      </c>
-      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>24.6</v>
+      </c>
+      <c r="J2">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>55879</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>25.2</v>
+      </c>
+      <c r="J3">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>24.6</v>
-      </c>
-      <c r="L2">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
